--- a/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
@@ -1272,10 +1272,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6071.939999999991</v>
+        <v>6071.939999999992</v>
       </c>
       <c r="B105" t="n">
-        <v>4909.055062380726</v>
+        <v>6071.93999999999</v>
       </c>
     </row>
     <row r="106">
@@ -1312,18 +1312,18 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>922.0786875066219</v>
+        <v>1614.603374998454</v>
       </c>
       <c r="B110" t="n">
-        <v>353.1600000116985</v>
+        <v>773.6411249918334</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4409.11875014827</v>
+        <v>5833.303125070232</v>
       </c>
       <c r="B111" t="n">
-        <v>2406.156250130062</v>
+        <v>3292.748958327263</v>
       </c>
     </row>
     <row r="112">
@@ -1339,7 +1339,7 @@
         <v>3026.099999999997</v>
       </c>
       <c r="B113" t="n">
-        <v>2022.803750004141</v>
+        <v>2789.685937499999</v>
       </c>
     </row>
     <row r="114">
@@ -1360,26 +1360,26 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33595.06499999995</v>
+        <v>33595.06499999996</v>
       </c>
       <c r="B116" t="n">
-        <v>16642.55526581298</v>
+        <v>22691.66667199495</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>30296.54296862074</v>
+        <v>36194.27000000002</v>
       </c>
       <c r="B117" t="n">
-        <v>15129.42030204886</v>
+        <v>20429.29555182912</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>25298.28</v>
+        <v>25298.28000000001</v>
       </c>
       <c r="B118" t="n">
-        <v>24609.35362581317</v>
+        <v>25298.28000000001</v>
       </c>
     </row>
     <row r="119">
@@ -1416,58 +1416,58 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>18392.04832441613</v>
+        <v>23354.982</v>
       </c>
       <c r="B123" t="n">
-        <v>9289.861143829243</v>
+        <v>12341.30075618884</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>77939.01990000054</v>
+        <v>77939.01990000055</v>
       </c>
       <c r="B124" t="n">
-        <v>35918.05814368754</v>
+        <v>53493.7710538886</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>20995.24215633951</v>
+        <v>25055.59000000005</v>
       </c>
       <c r="B125" t="n">
-        <v>10712.01042718326</v>
+        <v>14720.15912496869</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2609.180000000002</v>
+        <v>2609.180000000001</v>
       </c>
       <c r="B126" t="n">
-        <v>2159.562374990678</v>
+        <v>2609.179999999996</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3210.199999999995</v>
+        <v>3210.199999999996</v>
       </c>
       <c r="B127" t="n">
-        <v>2296.343958337724</v>
+        <v>3094.116875034388</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>32620.16897054895</v>
+        <v>41643.55999999989</v>
       </c>
       <c r="B128" t="n">
-        <v>16337.0412545343</v>
+        <v>22413.77859607097</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4780.719239640359</v>
+        <v>5770.870000000005</v>
       </c>
       <c r="B129" t="n">
-        <v>2271.421302047609</v>
+        <v>3773.393270846046</v>
       </c>
     </row>
     <row r="130">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6439.600000059198</v>
+        <v>6629.000000000012</v>
       </c>
       <c r="B131" t="n">
-        <v>3403.281250039062</v>
+        <v>5067.436458377922</v>
       </c>
     </row>
     <row r="132">
@@ -1496,34 +1496,34 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>88831.96000000015</v>
+        <v>88831.96000000014</v>
       </c>
       <c r="B133" t="n">
-        <v>74277.79512404837</v>
+        <v>88831.96000000022</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4373.040000033836</v>
+        <v>6344.099999942547</v>
       </c>
       <c r="B134" t="n">
-        <v>2002.979999976379</v>
+        <v>3270.204000019151</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20939.66718758787</v>
+        <v>27864.26999999993</v>
       </c>
       <c r="B135" t="n">
-        <v>10374.4648125995</v>
+        <v>14873.38340636111</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>33580.81650021808</v>
+        <v>47456.25228657518</v>
       </c>
       <c r="B136" t="n">
-        <v>15836.05488719246</v>
+        <v>21519.53276031595</v>
       </c>
     </row>
     <row r="137">

--- a/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,1292 +437,2902 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>County</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Max Economic Tonnes - blending in country</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Max Economic Tonnes - NO blending in country</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fengdu</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>942.1999999999973</v>
       </c>
-      <c r="B3" t="n">
+      <c r="D3" t="n">
         <v>942.1999999999973</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>66175.20000000011</v>
-      </c>
-      <c r="B4" t="n">
-        <v>31531.69500002674</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nanchuan</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26529.16499981087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17577.78749975184</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4042.84375002043</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1960.166666717177</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Qinjiang</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2057.34374999834</v>
+      </c>
+      <c r="D5" t="n">
+        <v>921.3020833422009</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>19368.60925010789</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8874.363000091069</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wulong</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9195.641250182143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4958.309999999999</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Binyang</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chongzuo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>61439.70000000011</v>
       </c>
-      <c r="B11" t="n">
+      <c r="D11" t="n">
         <v>61439.69999999996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Debao</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>129655.4</v>
       </c>
-      <c r="B12" t="n">
+      <c r="D12" t="n">
         <v>129655.4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Donglan</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Guigang</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Heng</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jingxi</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>284200.0000000014</v>
       </c>
-      <c r="B16" t="n">
+      <c r="D16" t="n">
         <v>284199.9999999998</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laibin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lingyun</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Long'an</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Longzhou</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>35834.39999999993</v>
       </c>
-      <c r="B20" t="n">
+      <c r="D20" t="n">
         <v>35834.40000000005</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mashan</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Napo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>48978.99999999993</v>
       </c>
-      <c r="B22" t="n">
+      <c r="D22" t="n">
         <v>48978.99999999993</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ningming</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pingguo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>253406.4820000001</v>
       </c>
-      <c r="B24" t="n">
+      <c r="D24" t="n">
         <v>253406.4819999991</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pingxiang</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Shanglin</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>95718.00000000039</v>
       </c>
-      <c r="B26" t="n">
+      <c r="D26" t="n">
         <v>95718.00000000039</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tiandong</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>11429.49500000001</v>
       </c>
-      <c r="B27" t="n">
+      <c r="D27" t="n">
         <v>7835.454579889728</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tianyang</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>84791.00000000041</v>
       </c>
-      <c r="B28" t="n">
+      <c r="D28" t="n">
         <v>76979.84993501949</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tian'e</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>228.2994791660624</v>
       </c>
-      <c r="B29" t="n">
+      <c r="D29" t="n">
         <v>100.820312501033</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tianlin</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>412.7906249993133</v>
       </c>
-      <c r="B30" t="n">
+      <c r="D30" t="n">
         <v>187.7343750019237</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yizhou</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yongning</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>700.0000000000041</v>
       </c>
-      <c r="B32" t="n">
+      <c r="D32" t="n">
         <v>700.0000000000041</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Daozhen</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>109789.2899999998</v>
       </c>
-      <c r="B34" t="n">
+      <c r="D34" t="n">
         <v>109789.2899999998</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fuquan</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>3956.817857173793</v>
       </c>
-      <c r="B35" t="n">
+      <c r="D35" t="n">
         <v>1988.078571467251</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Guiyang</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>5136.479999999986</v>
       </c>
-      <c r="B36" t="n">
+      <c r="D36" t="n">
         <v>3195.777214272257</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Huangping</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>8949.120000000017</v>
       </c>
-      <c r="B37" t="n">
+      <c r="D37" t="n">
         <v>5195.017428551721</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kaili</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>34966.38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="D38" t="n">
         <v>22905.06023237807</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kaiyang</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>4661.51999999999</v>
       </c>
-      <c r="B39" t="n">
+      <c r="D39" t="n">
         <v>3768.755678479858</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jinsha</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>2617.410535737813</v>
       </c>
-      <c r="B40" t="n">
+      <c r="D40" t="n">
         <v>1117.546071475626</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Longli</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>139.5546428553749</v>
       </c>
-      <c r="B41" t="n">
+      <c r="D41" t="n">
         <v>66.89571428538898</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Qingzhen</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>149551.4082000001</v>
       </c>
-      <c r="B42" t="n">
+      <c r="D42" t="n">
         <v>79580.48818226035</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
-      </c>
-      <c r="B43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tongzi</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Weng'an</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>3482.279999999996</v>
       </c>
-      <c r="B44" t="n">
+      <c r="D44" t="n">
         <v>3482.279999999996</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Wuchuan</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>61139.99999999983</v>
       </c>
-      <c r="B45" t="n">
+      <c r="D45" t="n">
         <v>33239.41607147655</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Xifeng</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>203.2218964331127</v>
       </c>
-      <c r="B46" t="n">
+      <c r="D46" t="n">
         <v>87.67176785492269</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Xiuwen</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>30975.39019570135</v>
       </c>
-      <c r="B47" t="n">
+      <c r="D47" t="n">
         <v>15074.44317814826</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Zheng'an</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>49066.98391478969</v>
       </c>
-      <c r="B48" t="n">
+      <c r="D48" t="n">
         <v>22308.30504290711</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zhijin</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>8961.660000000034</v>
       </c>
-      <c r="B49" t="n">
+      <c r="D49" t="n">
         <v>8961.660000000034</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Zunyi</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>42635.33913189523</v>
       </c>
-      <c r="B50" t="n">
+      <c r="D50" t="n">
         <v>20775.98202828623</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
-      </c>
-      <c r="B51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Wenchang</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fengfeng</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jingxing</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>485.799999999999</v>
       </c>
-      <c r="B55" t="n">
+      <c r="D55" t="n">
         <v>485.799999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Tangshan</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>16708.30000000001</v>
       </c>
-      <c r="B56" t="n">
+      <c r="D56" t="n">
         <v>9808.667187628291</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Wu'an</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>226.338</v>
       </c>
-      <c r="B57" t="n">
+      <c r="D57" t="n">
         <v>126.8099062510508</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Baofeng</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>16705.40200000001</v>
       </c>
-      <c r="B59" t="n">
+      <c r="D59" t="n">
         <v>16705.40200000001</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dengfeng</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>42805.39199999999</v>
       </c>
-      <c r="B60" t="n">
+      <c r="D60" t="n">
         <v>31702.74344892988</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Gongyi</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>94369.27826504978</v>
       </c>
-      <c r="B61" t="n">
+      <c r="D61" t="n">
         <v>47432.26463082826</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hubin</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>1953.840000000003</v>
       </c>
-      <c r="B62" t="n">
+      <c r="D62" t="n">
         <v>1061.23750000535</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Jiaxian</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>2592.406250030624</v>
       </c>
-      <c r="B63" t="n">
+      <c r="D63" t="n">
         <v>1320.958333345175</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Jiyuan</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>3322.125375023753</v>
       </c>
-      <c r="B64" t="n">
+      <c r="D64" t="n">
         <v>1684.820437513463</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>5480.090000000007</v>
       </c>
-      <c r="B65" t="n">
+      <c r="D65" t="n">
         <v>5480.090000000007</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Mianchi</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>94521.92400000035</v>
       </c>
-      <c r="B66" t="n">
+      <c r="D66" t="n">
         <v>90757.92595619905</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pingdingshan</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>3143.000000000001</v>
       </c>
-      <c r="B67" t="n">
+      <c r="D67" t="n">
         <v>2225.356250005614</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Qinyang</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>5138.098958366051</v>
       </c>
-      <c r="B68" t="n">
+      <c r="D68" t="n">
         <v>2610.47708340091</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ruyang</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ruzhou</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>4337.199999999988</v>
       </c>
-      <c r="B70" t="n">
+      <c r="D70" t="n">
         <v>4337.199999999988</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sanmenxia</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>10078.6</v>
       </c>
-      <c r="B71" t="n">
+      <c r="D71" t="n">
         <v>6534.592291698465</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Shaan</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>57170.82000000005</v>
       </c>
-      <c r="B72" t="n">
+      <c r="D72" t="n">
         <v>54728.29880721996</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Xin'an</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>111142.2900000001</v>
       </c>
-      <c r="B73" t="n">
+      <c r="D73" t="n">
         <v>68830.48635333669</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Xingyang</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>12412.60499983416</v>
       </c>
-      <c r="B74" t="n">
+      <c r="D74" t="n">
         <v>6079.596250006448</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Xinmi</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>24052.56000000004</v>
       </c>
-      <c r="B75" t="n">
+      <c r="D75" t="n">
         <v>19467.54074969935</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Yanshi</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>40835.65652173915</v>
       </c>
-      <c r="B76" t="n">
+      <c r="D76" t="n">
         <v>31957.54726894878</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yichuan</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>505.8500000037747</v>
       </c>
-      <c r="B77" t="n">
+      <c r="D77" t="n">
         <v>268.4968750009438</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
-      </c>
-      <c r="B78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yiyang</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Yuzhou</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>16417.16999999996</v>
       </c>
-      <c r="B79" t="n">
+      <c r="D79" t="n">
         <v>16417.16999999996</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
-      </c>
-      <c r="B80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Yicheng</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>31097.77999999992</v>
       </c>
-      <c r="B81" t="n">
+      <c r="D81" t="n">
         <v>31097.77999999992</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Chenxi</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>3370.500000000006</v>
       </c>
-      <c r="B83" t="n">
+      <c r="D83" t="n">
         <v>3370.500000000006</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Qingshuihe</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
-      </c>
-      <c r="B86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Tai'an</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>3614.999999999999</v>
       </c>
-      <c r="B89" t="n">
+      <c r="D89" t="n">
         <v>3614.999999999999</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Zhangqiu</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>4025.142410731853</v>
       </c>
-      <c r="B90" t="n">
+      <c r="D90" t="n">
         <v>1904.175000021159</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Zouwu</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Zibo</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>48286.00000000036</v>
       </c>
-      <c r="B92" t="n">
+      <c r="D92" t="n">
         <v>48286.00000000036</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" t="n">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Chencheng</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>238.6999999999996</v>
       </c>
-      <c r="B94" t="n">
+      <c r="D94" t="n">
         <v>238.6999999999996</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" t="n">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pucheng</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>23552.2</v>
       </c>
-      <c r="B96" t="n">
+      <c r="D96" t="n">
         <v>23552.2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Hancheng</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Tongchuan</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>660.100000000002</v>
       </c>
-      <c r="B98" t="n">
+      <c r="D98" t="n">
         <v>660.100000000002</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Xixiang</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Zhenba</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>91578.89999999989</v>
-      </c>
-      <c r="B102" t="n">
-        <v>91578.89999999989</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Baode</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>91578.89999999991</v>
+      </c>
+      <c r="D102" t="n">
+        <v>91578.89999999991</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Fangshan</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>3856.859999999996</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3856.859999999996</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fenxi</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3856.860000000005</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3856.860000000005</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>6071.939999999992</v>
-      </c>
-      <c r="B105" t="n">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fenyang</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>6071.93999999999</v>
       </c>
+      <c r="D105" t="n">
+        <v>4380.470999887242</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>0</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Gujiao</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>5144.999999999994</v>
-      </c>
-      <c r="B107" t="n">
-        <v>5144.999999999994</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Gu</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5145.000000000014</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5145.000000000014</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Hequ</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>2449.817999999999</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2449.817999999999</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Heshun</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2449.818000000007</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2449.818000000007</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>1614.603374998454</v>
-      </c>
-      <c r="B110" t="n">
-        <v>773.6411249918334</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Huairen</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>735.0142499841077</v>
+      </c>
+      <c r="D110" t="n">
+        <v>282.5280000093587</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>5833.303125070232</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3292.748958327263</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Huozhou</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3910.54583340062</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1924.92500010405</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>101324.8180000003</v>
-      </c>
-      <c r="B112" t="n">
-        <v>101324.8180000003</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Jiaokou</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>101324.817999999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>101324.817999999</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>3026.099999999997</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2789.685937499999</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jiexiu</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3026.099999999993</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1813.858749994667</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Jingle</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>2048.200000000003</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2048.200000000003</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Jincheng</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2048.199999999998</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2048.199999999998</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>33595.06499999996</v>
-      </c>
-      <c r="B116" t="n">
-        <v>22691.66667199495</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>31255.40868759605</v>
+      </c>
+      <c r="D116" t="n">
+        <v>14657.84681265036</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>36194.27000000002</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20429.29555182912</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lingshi</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>26887.17199974144</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13551.30704163908</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>25298.28000000001</v>
-      </c>
-      <c r="B118" t="n">
-        <v>25298.28000000001</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Liulin</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>25298.27999999993</v>
+      </c>
+      <c r="D118" t="n">
+        <v>22452.22350050593</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lvliang</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>40892.5999999999</v>
-      </c>
-      <c r="B120" t="n">
-        <v>40892.5999999999</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Loufan</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>40892.59999999993</v>
+      </c>
+      <c r="D120" t="n">
+        <v>40892.59999999993</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Yingze</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>31297.27999999996</v>
-      </c>
-      <c r="B122" t="n">
-        <v>31297.27999999996</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>31297.28000000008</v>
+      </c>
+      <c r="D122" t="n">
+        <v>31297.28000000008</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>23354.982</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12341.30075618884</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ningwu</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>15973.13947456628</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8132.538375063386</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>77939.01990000055</v>
-      </c>
-      <c r="B124" t="n">
-        <v>53493.7710538886</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pinglu</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>70423.47155316811</v>
+      </c>
+      <c r="D124" t="n">
+        <v>31774.06829104987</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>25055.59000000005</v>
-      </c>
-      <c r="B125" t="n">
-        <v>14720.15912496869</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Qinyuan</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>18508.32570839656</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9187.04966667502</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>2609.180000000001</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2609.179999999996</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Shenchi</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2609.179999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1910.292499992548</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>3210.199999999996</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3094.116875034388</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Shuozhou</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3210.200000000003</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2044.591666661012</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>41643.55999999989</v>
-      </c>
-      <c r="B128" t="n">
-        <v>22413.77859607097</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Wutai</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>28691.91708335435</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14213.34363361551</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>5770.870000000005</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3773.393270846046</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Wuxiang</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>4122.050000024737</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1817.137041638088</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Xia</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>3971.268000000013</v>
       </c>
-      <c r="B130" t="n">
+      <c r="D130" t="n">
         <v>3971.268000000013</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>6629.000000000012</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5067.436458377922</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Xiangyuan</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>5784.591666692868</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2722.625000031253</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>151469.7624999997</v>
-      </c>
-      <c r="B132" t="n">
-        <v>151469.7624999997</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Xiaoyi</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>151469.7624999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>151469.7624999999</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>88831.96000000014</v>
-      </c>
-      <c r="B133" t="n">
-        <v>88831.96000000022</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Xing</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>88831.95999999977</v>
+      </c>
+      <c r="D133" t="n">
+        <v>66941.22699898462</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>6344.099999942547</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3270.204000019151</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Xiyang</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3658.03199998468</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1602.383999981103</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>27864.26999999993</v>
-      </c>
-      <c r="B135" t="n">
-        <v>14873.38340636111</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Yuanping</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>18377.14950006105</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8707.584375</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>47456.25228657518</v>
-      </c>
-      <c r="B136" t="n">
-        <v>21519.53276031595</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Yangquan</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>29085.76117370952</v>
+      </c>
+      <c r="D136" t="n">
+        <v>13489.80101359381</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Yuanqu</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>5134.499999999992</v>
-      </c>
-      <c r="B138" t="n">
-        <v>5134.499999999992</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Zhongyang</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>5134.499999999995</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5134.499999999995</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Zuoquan</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0</v>
-      </c>
-      <c r="B140" t="n">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Guangyuan</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>10163.99999999997</v>
       </c>
-      <c r="B142" t="n">
+      <c r="D142" t="n">
         <v>10163.99999999997</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Miyi</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Tianquan</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>3177.999999999997</v>
       </c>
-      <c r="B144" t="n">
+      <c r="D144" t="n">
         <v>3177.999999999997</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0</v>
-      </c>
-      <c r="B145" t="n">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" t="n">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Annin</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>3877.300000000004</v>
       </c>
-      <c r="B147" t="n">
+      <c r="D147" t="n">
         <v>3877.300000000004</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Chengong</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>583.8224999987888</v>
       </c>
-      <c r="B148" t="n">
+      <c r="D148" t="n">
         <v>297.0590625024228</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fumin</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>1845.469999958202</v>
       </c>
-      <c r="B149" t="n">
+      <c r="D149" t="n">
         <v>936.6683333419732</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Guangnan</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>5616.099999999995</v>
       </c>
-      <c r="B150" t="n">
+      <c r="D150" t="n">
         <v>3791.703229194411</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Gudu</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>831.2850000000004</v>
       </c>
-      <c r="B151" t="n">
+      <c r="D151" t="n">
         <v>451.8018750239033</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Heqing</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>118.6286458335625</v>
       </c>
-      <c r="B152" t="n">
+      <c r="D152" t="n">
         <v>55.26875000089625</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Hongta</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>102.8999999999999</v>
       </c>
-      <c r="B153" t="n">
+      <c r="D153" t="n">
         <v>102.8999999999999</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jinnin</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>11.33125</v>
       </c>
-      <c r="B154" t="n">
+      <c r="D154" t="n">
         <v>5.665624999999999</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>0</v>
-      </c>
-      <c r="B155" t="n">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Ludian</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Malipo</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>1180.829999999999</v>
       </c>
-      <c r="B156" t="n">
+      <c r="D156" t="n">
         <v>1180.829999999999</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Songming</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>798.6999999999981</v>
       </c>
-      <c r="B157" t="n">
+      <c r="D157" t="n">
         <v>798.6999999999981</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Wenshan</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>51525.73843808605</v>
       </c>
-      <c r="B158" t="n">
+      <c r="D158" t="n">
         <v>26715.24068782235</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Xichou</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>23949.94000000004</v>
       </c>
-      <c r="B159" t="n">
+      <c r="D159" t="n">
         <v>23949.94000000004</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Xishan</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>740.5999999999984</v>
       </c>
-      <c r="B160" t="n">
+      <c r="D160" t="n">
         <v>457.2543749920648</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Yanshan</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>3966.200000000003</v>
       </c>
-      <c r="B161" t="n">
+      <c r="D161" t="n">
         <v>2246.332916665484</v>
       </c>
     </row>

--- a/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/max_economic_tonnes/max_economic_tonnes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,138 +459,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beijing</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Annin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3512.07218753462</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1778.826770834255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fengdu</t>
+          <t>Baode</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>942.1999999999973</v>
+        <v>91578.89999999983</v>
       </c>
       <c r="D3" t="n">
-        <v>942.1999999999973</v>
+        <v>89125.89374960744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nanchuan</t>
+          <t>Baofeng</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26529.16499981087</v>
+        <v>16578.61993127985</v>
       </c>
       <c r="D4" t="n">
-        <v>17577.78749975184</v>
+        <v>8539.145218738066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qinjiang</t>
+          <t>Binyang</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2057.34374999834</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>921.3020833422009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wulong</t>
+          <t>CBG</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9195.641250182143</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4958.309999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chongqing</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Chencheng</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>147.4825000009804</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>68.76833333566348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fujian</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Chengong</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>545.0625000024226</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>282.4231250006462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Guangdong</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Chenxi</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -603,38 +601,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Fly Ash</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Binyang</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Guangxi</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chongzuo</t>
+          <t>China Total</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61439.70000000011</v>
-      </c>
-      <c r="D11" t="n">
-        <v>61439.69999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -644,32 +634,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Debao</t>
+          <t>Chongzuo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129655.4</v>
+        <v>109789.2900000003</v>
       </c>
       <c r="D12" t="n">
-        <v>129655.4</v>
+        <v>98426.4252383925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Donglan</t>
+          <t>Daozhen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>121771.888625787</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59340.49825015284</v>
       </c>
     </row>
     <row r="14">
@@ -680,25 +670,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Guigang</t>
+          <t>Debao</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42805.39199999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>40665.12239999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Heng</t>
+          <t>Dengfeng</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -716,43 +706,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jingxi</t>
+          <t>Donglan</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>284200.0000000014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>284199.9999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Laibin</t>
+          <t>Fangshan</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>86.3683333336474</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>43.18416666635259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lingyun</t>
+          <t>Fengdu</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -765,48 +755,48 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Long'an</t>
+          <t>Fengfeng</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3309.323624958674</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1678.193250008495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Longzhou</t>
+          <t>Fenxi</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35834.39999999993</v>
+        <v>6071.939999999988</v>
       </c>
       <c r="D20" t="n">
-        <v>35834.40000000005</v>
+        <v>4445.527499921938</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mashan</t>
+          <t>Fenyang</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -819,66 +809,64 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Napo</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>48978.99999999993</v>
-      </c>
-      <c r="D22" t="n">
-        <v>48978.99999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ningming</t>
+          <t>Fugu</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1739.924999991642</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>861.4283333311045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pingguo</t>
+          <t>Fumin</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>253406.4820000001</v>
+        <v>4229.50178576069</v>
       </c>
       <c r="D24" t="n">
-        <v>253406.4819999991</v>
+        <v>2162.776785693915</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pingxiang</t>
+          <t>Fuquan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -891,127 +879,123 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shanglin</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>95718.00000000039</v>
-      </c>
-      <c r="D26" t="n">
-        <v>95718.00000000039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tiandong</t>
+          <t>Gongyi</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11429.49500000001</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>7835.454579889728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tianyang</t>
+          <t>Gove</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>84791.00000000041</v>
-      </c>
-      <c r="D28" t="n">
-        <v>76979.84993501949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tian'e</t>
+          <t>Gu</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>228.2994791660624</v>
+        <v>5616.099999999993</v>
       </c>
       <c r="D29" t="n">
-        <v>100.820312501033</v>
+        <v>4863.94375004814</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tianlin</t>
+          <t>Guangnan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>412.7906249993133</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>187.7343750019237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Yizhou</t>
+          <t>Guangyuan</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>942.046874990865</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>441.5250000056329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guangxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Yongning</t>
+          <t>Gudu</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>700.0000000000041</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>700.0000000000041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1022,14 +1006,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Guigang</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5136.480000000023</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3369.668464321483</v>
       </c>
     </row>
     <row r="34">
@@ -1040,194 +1024,190 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Daozhen</t>
+          <t>Guiyang</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>109789.2899999998</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>109789.2899999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fuquan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3956.817857173793</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1988.078571467251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Guiyang</t>
+          <t>Gujiao</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5136.479999999986</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3195.777214272257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Huangping</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8949.120000000017</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5195.017428551721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kaili</t>
+          <t>Hancheng</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34966.38</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22905.06023237807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kaiyang</t>
+          <t>Heng</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4661.51999999999</v>
+        <v>120.0539322920048</v>
       </c>
       <c r="D39" t="n">
-        <v>3768.755678479858</v>
+        <v>60.55289062592619</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jinsha</t>
+          <t>Heqing</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2617.410535737813</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1117.546071475626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Longli</t>
+          <t>Hequ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>139.5546428553749</v>
+        <v>1872.360899986004</v>
       </c>
       <c r="D41" t="n">
-        <v>66.89571428538898</v>
+        <v>944.9297999894993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Qingzhen</t>
+          <t>Heshun</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>149551.4082000001</v>
+        <v>80.29875000029395</v>
       </c>
       <c r="D42" t="n">
-        <v>79580.48818226035</v>
+        <v>40.60874999980889</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tongzi</t>
+          <t>Hongta</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>571.1259374801347</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>256.5928125132435</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Weng'an</t>
+          <t>Huairen</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3482.279999999996</v>
+        <v>8949.119999999984</v>
       </c>
       <c r="D44" t="n">
-        <v>3482.279999999996</v>
+        <v>6599.976000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1238,115 +1218,115 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wuchuan</t>
+          <t>Huangping</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>61139.99999999983</v>
+        <v>1233.361500021981</v>
       </c>
       <c r="D45" t="n">
-        <v>33239.41607147655</v>
+        <v>603.8877500051168</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Xifeng</t>
+          <t>Hubin</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>203.2218964331127</v>
+        <v>3721.955208301249</v>
       </c>
       <c r="D46" t="n">
-        <v>87.67176785492269</v>
+        <v>1701.651041568686</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Xiuwen</t>
+          <t>Huozhou</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30975.39019570135</v>
+        <v>101324.8179999998</v>
       </c>
       <c r="D47" t="n">
-        <v>15074.44317814826</v>
+        <v>63448.63603358905</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Zheng'an</t>
+          <t>Jiaokou</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49066.98391478969</v>
+        <v>2746.450000002456</v>
       </c>
       <c r="D48" t="n">
-        <v>22308.30504290711</v>
+        <v>1379.145833344194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zhijin</t>
+          <t>Jiaxian</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8961.660000000034</v>
+        <v>3026.099999999997</v>
       </c>
       <c r="D49" t="n">
-        <v>8961.660000000034</v>
+        <v>1567.087500008646</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zunyi</t>
+          <t>Jiexiu</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42635.33913189523</v>
+        <v>2048.199999999998</v>
       </c>
       <c r="D50" t="n">
-        <v>20775.98202828623</v>
+        <v>1675.13500000585</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Guizhou</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Jincheng</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1359,37 +1339,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hainan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenchang</t>
+          <t>Jingle</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>284199.9999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>258317.5000032477</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hainan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Jingxi</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>482.5794062501959</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>234.1436718750109</v>
       </c>
     </row>
     <row r="54">
@@ -1400,284 +1380,284 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fengfeng</t>
+          <t>Jingxing</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>59.86677083340889</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>29.13749999967625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jingxing</t>
+          <t>Jinnin</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>485.799999999999</v>
+        <v>3691.82325000549</v>
       </c>
       <c r="D55" t="n">
-        <v>485.799999999999</v>
+        <v>1695.925178518884</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tangshan</t>
+          <t>Jinsha</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16708.30000000001</v>
+        <v>2022.708437533526</v>
       </c>
       <c r="D56" t="n">
-        <v>9808.667187628291</v>
+        <v>940.4109375395964</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wu'an</t>
+          <t>Jiyuan</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>226.338</v>
+        <v>34966.38</v>
       </c>
       <c r="D57" t="n">
-        <v>126.8099062510508</v>
+        <v>29502.88312456293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hebei</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Kaili</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4661.51999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>3933.157499941721</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Baofeng</t>
+          <t>Kaiyang</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16705.40200000001</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>16705.40200000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dengfeng</t>
+          <t>Laibin</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>42805.39199999999</v>
+        <v>33595.06500000002</v>
       </c>
       <c r="D60" t="n">
-        <v>31702.74344892988</v>
+        <v>18574.77142968526</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gongyi</t>
+          <t>Lin</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>94369.27826504978</v>
+        <v>21824.28304151498</v>
       </c>
       <c r="D61" t="n">
-        <v>47432.26463082826</v>
+        <v>10448.94104143226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hubin</t>
+          <t>Lingshi</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1953.840000000003</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1061.23750000535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jiaxian</t>
+          <t>Lingyun</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2592.406250030624</v>
+        <v>25298.28000000004</v>
       </c>
       <c r="D63" t="n">
-        <v>1320.958333345175</v>
+        <v>19774.16339067641</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jiyuan</t>
+          <t>Liulin</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3322.125375023753</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1684.820437513463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lushan</t>
+          <t>Long'an</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5480.090000000007</v>
+        <v>165.0648214299645</v>
       </c>
       <c r="D65" t="n">
-        <v>5480.090000000007</v>
+        <v>79.19116071557622</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mianchi</t>
+          <t>Longli</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>94521.92400000035</v>
+        <v>26331.88500012793</v>
       </c>
       <c r="D66" t="n">
-        <v>90757.92595619905</v>
+        <v>13043.29500011306</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pingdingshan</t>
+          <t>Longzhou</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3143.000000000001</v>
+        <v>40892.59999999983</v>
       </c>
       <c r="D67" t="n">
-        <v>2225.356250005614</v>
+        <v>34115.19921870068</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Qinyang</t>
+          <t>Loufan</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5138.098958366051</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2610.47708340091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ruyang</t>
+          <t>Ludian</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5480.090000000007</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>3336.167885431668</v>
       </c>
     </row>
     <row r="70">
@@ -1688,122 +1668,118 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ruzhou</t>
+          <t>Lushan</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4337.199999999988</v>
+        <v>8090.362500054437</v>
       </c>
       <c r="D70" t="n">
-        <v>4337.199999999988</v>
+        <v>4101.9000000236</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sanmenxia</t>
+          <t>Lushan</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10078.6</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>6534.592291698465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Shaan</t>
+          <t>Lvliang</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>57170.82000000005</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>54728.29880721996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Xin'an</t>
+          <t>MRN</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>111142.2900000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>68830.48635333669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Xingyang</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12412.60499983416</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6079.596250006448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Xinmi</t>
+          <t>Malipo</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24052.56000000004</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>19467.54074969935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Yanshi</t>
+          <t>Mashan</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40835.65652173915</v>
+        <v>94521.92399999972</v>
       </c>
       <c r="D76" t="n">
-        <v>31957.54726894878</v>
+        <v>77632.45967829372</v>
       </c>
     </row>
     <row r="77">
@@ -1814,61 +1790,61 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Yichuan</t>
+          <t>Mianchi</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>505.8500000037747</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>268.4968750009438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Yiyang</t>
+          <t>Miyi</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>27769.94999964548</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>18611.77499983456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Yuzhou</t>
+          <t>Nanchuan</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>16417.16999999996</v>
+        <v>48979.00000000013</v>
       </c>
       <c r="D79" t="n">
-        <v>16417.16999999996</v>
+        <v>33073.94437510495</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Henan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Napo</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1881,30 +1857,30 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Yicheng</t>
+          <t>Ningming</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>31097.77999999992</v>
+        <v>12644.53322354698</v>
       </c>
       <c r="D81" t="n">
-        <v>31097.77999999992</v>
+        <v>5962.992614012797</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hubei</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Ningwu</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1917,25 +1893,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Beijing</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chenxi</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3370.500000000006</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>3370.500000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hunan</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1953,12 +1929,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Inner Mongolia</t>
+          <t>Fujian</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Qingshuihe</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1971,7 +1947,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Inner Mongolia</t>
+          <t>Guangdong</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1989,7 +1965,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jiangxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2007,7 +1983,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Liaoning</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2025,48 +2001,48 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Hainan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tai'an</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3614.999999999999</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>3614.999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Zhangqiu</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4025.142410731853</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1904.175000021159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zouwu</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2079,25 +2055,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Zibo</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>48286.00000000036</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>48286.00000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Shandong</t>
+          <t>Hunan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2115,30 +2091,30 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Inner Mongolia</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chencheng</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>238.6999999999996</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>238.6999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Jiangxi</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pucheng</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2151,19 +2127,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Liaoning</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fugu</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>23552.2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>23552.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2174,7 +2150,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hancheng</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2187,30 +2163,30 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tongchuan</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>660.100000000002</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>660.100000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Xixiang</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2223,12 +2199,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zhenba</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2241,7 +2217,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Shaanxi</t>
+          <t>Xinjiang</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2259,55 +2235,55 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Baode</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>91578.89999999991</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>91578.89999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fangshan</t>
+          <t>Pingdingshan</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>2354.44375001684</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fenxi</t>
+          <t>Pingguo</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3856.860000000005</v>
+        <v>253406.482</v>
       </c>
       <c r="D104" t="n">
-        <v>3856.860000000005</v>
+        <v>246303.8567721473</v>
       </c>
     </row>
     <row r="105">
@@ -2318,25 +2294,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fenyang</t>
+          <t>Pinglu</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6071.93999999999</v>
+        <v>77939.01989999991</v>
       </c>
       <c r="D105" t="n">
-        <v>4380.470999887242</v>
+        <v>39512.29955303972</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gujiao</t>
+          <t>Pingxiang</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2349,30 +2325,30 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gu</t>
+          <t>Pucheng</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5145.000000000014</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>5145.000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Inner Mongolia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hequ</t>
+          <t>Qingshuihe</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2385,55 +2361,55 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Heshun</t>
+          <t>Qingzhen</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2449.818000000007</v>
+        <v>59653.65322487009</v>
       </c>
       <c r="D109" t="n">
-        <v>2449.818000000007</v>
+        <v>38945.67921846339</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Huairen</t>
+          <t>Qinjiang</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>735.0142499841077</v>
+        <v>4191.677083337454</v>
       </c>
       <c r="D110" t="n">
-        <v>282.5280000093587</v>
+        <v>2019.541666703403</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Huozhou</t>
+          <t>Qinyang</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3910.54583340062</v>
+        <v>4678.629166693357</v>
       </c>
       <c r="D111" t="n">
-        <v>1924.92500010405</v>
+        <v>2294.12083340091</v>
       </c>
     </row>
     <row r="112">
@@ -2444,43 +2420,41 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jiaokou</t>
+          <t>Qinyuan</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>101324.817999999</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>101324.817999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jiexiu</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3026.099999999993</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1813.858749994667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jingle</t>
+          <t>Ruyang</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2493,91 +2467,89 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Jincheng</t>
+          <t>Ruzhou</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2048.199999999998</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>2048.199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lin</t>
+          <t>SMB</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>31255.40868759605</v>
-      </c>
-      <c r="D116" t="n">
-        <v>14657.84681265036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lingshi</t>
+          <t>Sanmenxia</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>26887.17199974144</v>
+        <v>10078.59999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>13551.30704163908</v>
+        <v>6602.08291673446</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Liulin</t>
+          <t>Shaan</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>25298.27999999993</v>
+        <v>57170.82000000006</v>
       </c>
       <c r="D118" t="n">
-        <v>22452.22350050593</v>
+        <v>55399.54548819433</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lvliang</t>
+          <t>Shanglin</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>7086.265625216503</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>3115.820312539883</v>
       </c>
     </row>
     <row r="120">
@@ -2588,14 +2560,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Loufan</t>
+          <t>Shenchi</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>40892.59999999993</v>
+        <v>2609.179999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>40892.59999999993</v>
+        <v>1924.27024997391</v>
       </c>
     </row>
     <row r="121">
@@ -2606,320 +2578,318 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Yingze</t>
+          <t>Shuozhou</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3210.200000000003</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>2436.312499972486</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Yu</t>
+          <t>Songming</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>31297.28000000008</v>
+        <v>457.7073958359483</v>
       </c>
       <c r="D122" t="n">
-        <v>31297.28000000008</v>
+        <v>209.1833333365188</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Shandong</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ningwu</t>
+          <t>Tai'an</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>15973.13947456628</v>
+        <v>2573.858482174316</v>
       </c>
       <c r="D123" t="n">
-        <v>8132.538375063386</v>
+        <v>1296.235714301336</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pinglu</t>
+          <t>Tangshan</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>70423.47155316811</v>
+        <v>16708.30000000002</v>
       </c>
       <c r="D124" t="n">
-        <v>31774.06829104987</v>
+        <v>10171.67489587908</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Qinyuan</t>
+          <t>Tian'e</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>18508.32570839656</v>
+        <v>226.5322916680381</v>
       </c>
       <c r="D125" t="n">
-        <v>9187.04966667502</v>
+        <v>102.980208334898</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Shenchi</t>
+          <t>Tiandong</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2609.179999999999</v>
+        <v>11429.49500000001</v>
       </c>
       <c r="D126" t="n">
-        <v>1910.292499992548</v>
+        <v>8017.548375991244</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Shuozhou</t>
+          <t>Tianlin</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3210.200000000003</v>
+        <v>360.8156250014396</v>
       </c>
       <c r="D127" t="n">
-        <v>2044.591666661012</v>
+        <v>151.7343750002588</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Sichuan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Wutai</t>
+          <t>Tianquan</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>28691.91708335435</v>
+        <v>873.95</v>
       </c>
       <c r="D128" t="n">
-        <v>14213.34363361551</v>
+        <v>387.7916666426425</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Wuxiang</t>
+          <t>Tianyang</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4122.050000024737</v>
+        <v>84791.00000000038</v>
       </c>
       <c r="D129" t="n">
-        <v>1817.137041638088</v>
+        <v>74932.62675781439</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Xia</t>
+          <t>Tongchuan</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3971.268000000013</v>
+        <v>441.8347916640339</v>
       </c>
       <c r="D130" t="n">
-        <v>3971.268000000013</v>
+        <v>214.3360416683954</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Xiangyuan</t>
+          <t>Tongzi</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5784.591666692868</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>2722.625000031253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Xiaoyi</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>151469.7624999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>151469.7624999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Hainan</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Xing</t>
+          <t>Wenchang</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>88831.95999999977</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>66941.22699898462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Xiyang</t>
+          <t>Weng'an</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3658.03199998468</v>
+        <v>3482.280000000007</v>
       </c>
       <c r="D134" t="n">
-        <v>1602.383999981103</v>
+        <v>2351.057196445776</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Yuanping</t>
+          <t>Wenshan</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>18377.14950006105</v>
+        <v>43857.92712441392</v>
       </c>
       <c r="D135" t="n">
-        <v>8707.584375</v>
+        <v>21285.90932322273</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Hebei</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Yangquan</t>
+          <t>Wu'an</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>29085.76117370952</v>
+        <v>226.338</v>
       </c>
       <c r="D136" t="n">
-        <v>13489.80101359381</v>
+        <v>133.9166499996227</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Yuanqu</t>
+          <t>Wuchuan</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>24346.82142800371</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>16495.06249985225</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Shanxi</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Zhongyang</t>
+          <t>Wulong</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5134.499999999995</v>
+        <v>17656.81175001347</v>
       </c>
       <c r="D138" t="n">
-        <v>5134.499999999995</v>
+        <v>8237.709249991569</v>
       </c>
     </row>
     <row r="139">
@@ -2930,14 +2900,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Zuoquan</t>
+          <t>Wutai</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>29026.55283352032</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>14436.43413335968</v>
       </c>
     </row>
     <row r="140">
@@ -2948,176 +2918,176 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Wuxiang</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>3946.862875008249</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1916.75325003545</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Guangyuan</t>
+          <t>Xia</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2512.772549991678</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1264.659750018343</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lushan</t>
+          <t>Xiangyuan</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10163.99999999997</v>
+        <v>5599.137500047352</v>
       </c>
       <c r="D142" t="n">
-        <v>10163.99999999997</v>
+        <v>2714.733333334598</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Miyi</t>
+          <t>Xiaoyi</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>136863.7496887986</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>67981.07197863293</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Yunnan</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tianquan</t>
+          <t>Xichou</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3177.999999999997</v>
+        <v>23949.94000000002</v>
       </c>
       <c r="D144" t="n">
-        <v>3177.999999999997</v>
+        <v>15631.61262521386</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sichuan</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Xifeng</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>210.9168285771304</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>87.67176785598231</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Xinjiang</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Not Applicable</t>
+          <t>Xin'an</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>111142.29</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>62274.41436525012</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Annin</t>
+          <t>Xing</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3877.300000000004</v>
+        <v>88831.95999999985</v>
       </c>
       <c r="D147" t="n">
-        <v>3877.300000000004</v>
+        <v>69796.53999961913</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chengong</t>
+          <t>Xingyang</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>583.8224999987888</v>
+        <v>12661.41000008296</v>
       </c>
       <c r="D148" t="n">
-        <v>297.0590625024228</v>
+        <v>6413.640000046992</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Fumin</t>
+          <t>Xinmi</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1845.469999958202</v>
+        <v>24052.56000000004</v>
       </c>
       <c r="D149" t="n">
-        <v>936.6683333419732</v>
+        <v>21464.76225004298</v>
       </c>
     </row>
     <row r="150">
@@ -3128,86 +3098,86 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Guangnan</t>
+          <t>Xishan</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5616.099999999995</v>
+        <v>740.5999999999988</v>
       </c>
       <c r="D150" t="n">
-        <v>3791.703229194411</v>
+        <v>455.8216666713393</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Guizhou</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Gudu</t>
+          <t>Xiuwen</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>831.2850000000004</v>
+        <v>28298.5046237022</v>
       </c>
       <c r="D151" t="n">
-        <v>451.8018750239033</v>
+        <v>14229.43552060046</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Shaanxi</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Heqing</t>
+          <t>Xixiang</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>118.6286458335625</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>55.26875000089625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hongta</t>
+          <t>Xiyang</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>102.8999999999999</v>
+        <v>3715.488000015323</v>
       </c>
       <c r="D153" t="n">
-        <v>102.8999999999999</v>
+        <v>1685.376000076608</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Jinnin</t>
+          <t>Yangquan</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>11.33125</v>
+        <v>36705.75597356447</v>
       </c>
       <c r="D154" t="n">
-        <v>5.665624999999999</v>
+        <v>17709.53535991193</v>
       </c>
     </row>
     <row r="155">
@@ -3218,122 +3188,356 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ludian</t>
+          <t>Yanshan</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>3966.200000000003</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>2048.022916665486</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Malipo</t>
+          <t>Yanshi</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1180.829999999999</v>
+        <v>40835.65651900003</v>
       </c>
       <c r="D156" t="n">
-        <v>1180.829999999999</v>
+        <v>32777.90643787295</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Hubei</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Songming</t>
+          <t>Yicheng</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>798.6999999999981</v>
+        <v>20678.63540625831</v>
       </c>
       <c r="D157" t="n">
-        <v>798.6999999999981</v>
+        <v>9635.9155363357</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wenshan</t>
+          <t>Yichuan</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>51525.73843808605</v>
+        <v>482.256250006606</v>
       </c>
       <c r="D158" t="n">
-        <v>26715.24068782235</v>
+        <v>237.4317708315087</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Shanxi</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Xichou</t>
+          <t>Yingze</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>23949.94000000004</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>23949.94000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Henan</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Xishan</t>
+          <t>Yiyang</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>740.5999999999984</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>457.2543749920648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Yunnan</t>
+          <t>Guangxi</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Yanshan</t>
+          <t>Yizhou</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3966.200000000003</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>2246.332916665484</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Yongning</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>700.0000000000035</v>
+      </c>
+      <c r="D162" t="n">
+        <v>601.0937500071896</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>5793.722666790364</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2328.666666611523</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Yuanping</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>18045.43200011014</v>
+      </c>
+      <c r="D164" t="n">
+        <v>8856.857250107476</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Yuanqu</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Yuzhou</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>15090.60403151382</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7632.029624922806</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Zhangqiu</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>4018.84553573135</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1905.974107169342</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Zhenba</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Zheng'an</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>47462.59189997753</v>
+      </c>
+      <c r="D169" t="n">
+        <v>22731.57429312721</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Zhijin</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>8961.660000000022</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5327.653526794252</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Zhongyang</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>5134.499999999992</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3236.568750014671</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Zibo</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>32784.18208378798</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15662.77125015694</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Zouwu</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Zunyi</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>37407.27402903599</v>
+      </c>
+      <c r="D174" t="n">
+        <v>18189.73808599302</v>
       </c>
     </row>
   </sheetData>
